--- a/angle accuracy.xlsx
+++ b/angle accuracy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRISMO\Documents\School\Spring 2024\WEAR Labs\VARS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11ED4ACF-2CAD-441E-A1C4-CE70778E70F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3340FDAA-59C9-477F-B656-B83C0F7AEB5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="14736" xr2:uid="{ECC0ADA5-6B2C-461B-9377-B2C0E127B760}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>Real Angle</t>
   </si>
@@ -50,7 +50,34 @@
     <t>error</t>
   </si>
   <si>
-    <t>SLOPE: 90/310</t>
+    <t>GND at OMEGA</t>
+  </si>
+  <si>
+    <t>90/331.00, START FROM DEADZOONE</t>
+  </si>
+  <si>
+    <t>SLOPE:</t>
+  </si>
+  <si>
+    <t>b:</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Will need to redo these measurements, too much human error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deadzone: </t>
+  </si>
+  <si>
+    <t>SLOPE: 0.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90/331 = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELECTRIC  </t>
   </si>
 </sst>
 </file>
@@ -103,6 +130,1077 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="67"/>
+                <c:pt idx="36">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>354</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>399</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>428</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>506</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>577</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>609</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>646</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>682</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>723</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>790</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>825</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="67"/>
+                <c:pt idx="36">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>220</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C133-4DBA-A58E-EEC9E6A83A13}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1637677567"/>
+        <c:axId val="1637686687"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1637677567"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1637686687"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1637686687"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1637677567"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>583659</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>168612</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>291830</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>115110</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69F16159-1274-680F-C521-6B340763BA04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -422,14 +1520,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCF6A247-4155-4934-9D32-BF76ECFE8E26}">
-  <dimension ref="A1:O68"/>
+  <dimension ref="A1:O131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="94" workbookViewId="0">
+      <selection activeCell="H76" sqref="H76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="14.21875" customWidth="1"/>
     <col min="3" max="3" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -446,6 +1545,9 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
@@ -983,12 +2085,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35">
+        <f>90/331</f>
+        <v>0.27190332326283989</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -1001,8 +2112,11 @@
       <c r="D37" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="I37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>0</v>
       </c>
@@ -1017,8 +2131,18 @@
         <f>(B38-A38)/(A38 + 0.0000001)*100</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F38">
+        <v>22</v>
+      </c>
+      <c r="G38">
+        <v>20</v>
+      </c>
+      <c r="H38">
+        <f>G38/F38</f>
+        <v>0.90909090909090906</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>10</v>
       </c>
@@ -1033,8 +2157,18 @@
         <f t="shared" ref="D39:D68" si="3">(B39-A39)/(A39 + 0.0000001)*100</f>
         <v>-99.999999000000017</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F39">
+        <v>59</v>
+      </c>
+      <c r="G39">
+        <v>30</v>
+      </c>
+      <c r="H39">
+        <f t="shared" ref="H39:H58" si="4">G39/F39</f>
+        <v>0.50847457627118642</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>20</v>
       </c>
@@ -1049,8 +2183,18 @@
         <f t="shared" si="3"/>
         <v>-30.299999848500004</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F40">
+        <v>106</v>
+      </c>
+      <c r="G40">
+        <v>40</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="4"/>
+        <v>0.37735849056603776</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>30</v>
       </c>
@@ -1065,8 +2209,18 @@
         <f t="shared" si="3"/>
         <v>-21.599999928000003</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F41">
+        <v>128</v>
+      </c>
+      <c r="G41">
+        <v>50</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="4"/>
+        <v>0.390625</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -1081,56 +2235,96 @@
         <f t="shared" si="3"/>
         <v>-12.899999967749991</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F42">
+        <v>171</v>
+      </c>
+      <c r="G42">
+        <v>60</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="4"/>
+        <v>0.35087719298245612</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>50</v>
       </c>
       <c r="B43">
-        <v>42.68</v>
+        <v>46.57</v>
       </c>
       <c r="C43">
         <f t="shared" si="2"/>
-        <v>7.32</v>
+        <v>3.4299999999999997</v>
       </c>
       <c r="D43">
         <f t="shared" si="3"/>
-        <v>-14.63999997072</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-6.8599999862799992</v>
+      </c>
+      <c r="F43">
+        <v>204</v>
+      </c>
+      <c r="G43">
+        <v>70</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="4"/>
+        <v>0.34313725490196079</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>60</v>
       </c>
       <c r="B44">
-        <v>54.29</v>
+        <v>54.86</v>
       </c>
       <c r="C44">
         <f t="shared" si="2"/>
-        <v>5.7100000000000009</v>
+        <v>5.1400000000000006</v>
       </c>
       <c r="D44">
         <f t="shared" si="3"/>
-        <v>-9.516666650805556</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-8.5666666523888892</v>
+      </c>
+      <c r="F44">
+        <v>259</v>
+      </c>
+      <c r="G44">
+        <v>80</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="4"/>
+        <v>0.30888030888030887</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>70</v>
       </c>
       <c r="B45">
-        <v>68.52</v>
+        <v>67.430000000000007</v>
       </c>
       <c r="C45">
         <f t="shared" si="2"/>
-        <v>1.480000000000004</v>
+        <v>2.5699999999999932</v>
       </c>
       <c r="D45">
         <f t="shared" si="3"/>
-        <v>-2.1142857112653122</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-3.6714285661836641</v>
+      </c>
+      <c r="F45">
+        <v>320</v>
+      </c>
+      <c r="G45">
+        <v>90</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="4"/>
+        <v>0.28125</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>80</v>
       </c>
@@ -1145,8 +2339,18 @@
         <f t="shared" si="3"/>
         <v>1.974999997531248</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F46">
+        <v>354</v>
+      </c>
+      <c r="G46">
+        <v>100</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="4"/>
+        <v>0.2824858757062147</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>90</v>
       </c>
@@ -1161,8 +2365,33 @@
         <f t="shared" si="3"/>
         <v>0.96666666559259773</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F47">
+        <v>399</v>
+      </c>
+      <c r="G47">
+        <v>110</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="4"/>
+        <v>0.27568922305764409</v>
+      </c>
+      <c r="J47">
+        <f>G47-G45</f>
+        <v>20</v>
+      </c>
+      <c r="K47">
+        <f>J47/J48</f>
+        <v>0.25316455696202533</v>
+      </c>
+      <c r="L47" t="s">
+        <v>6</v>
+      </c>
+      <c r="M47">
+        <f>90/331</f>
+        <v>0.27190332326283989</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>100</v>
       </c>
@@ -1177,206 +2406,350 @@
         <f t="shared" si="3"/>
         <v>-0.41999999958000173</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F48">
+        <v>428</v>
+      </c>
+      <c r="G48">
+        <v>120</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="4"/>
+        <v>0.28037383177570091</v>
+      </c>
+      <c r="J48">
+        <f>F47-F45</f>
+        <v>79</v>
+      </c>
+      <c r="L48" t="s">
+        <v>7</v>
+      </c>
+      <c r="M48" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>110</v>
       </c>
       <c r="B49">
-        <v>102.19</v>
+        <v>111.12</v>
       </c>
       <c r="C49">
         <f t="shared" si="2"/>
-        <v>7.8100000000000023</v>
+        <v>-1.1200000000000045</v>
       </c>
       <c r="D49">
         <f t="shared" si="3"/>
-        <v>-7.099999993545457</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.0181818172562025</v>
+      </c>
+      <c r="F49">
+        <v>475</v>
+      </c>
+      <c r="G49">
+        <v>130</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="4"/>
+        <v>0.27368421052631581</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>120</v>
       </c>
       <c r="B50">
-        <v>121.07</v>
+        <v>120.86</v>
       </c>
       <c r="C50">
         <f t="shared" si="2"/>
-        <v>-1.0699999999999932</v>
+        <v>-0.85999999999999943</v>
       </c>
       <c r="D50">
         <f t="shared" si="3"/>
-        <v>0.89166666592360544</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.71666666606944407</v>
+      </c>
+      <c r="F50">
+        <v>506</v>
+      </c>
+      <c r="G50">
+        <v>140</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="4"/>
+        <v>0.27667984189723321</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>130</v>
       </c>
       <c r="B51">
-        <v>131.22999999999999</v>
+        <v>130.57</v>
       </c>
       <c r="C51">
         <f t="shared" si="2"/>
-        <v>-1.2299999999999898</v>
+        <v>-0.56999999999999318</v>
       </c>
       <c r="D51">
         <f t="shared" si="3"/>
-        <v>0.94615384542602776</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.43846153812425509</v>
+      </c>
+      <c r="F51">
+        <v>540</v>
+      </c>
+      <c r="G51">
+        <v>150</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="4"/>
+        <v>0.27777777777777779</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>140</v>
       </c>
       <c r="B52">
-        <v>142.29</v>
+        <v>140.86000000000001</v>
       </c>
       <c r="C52">
         <v>153</v>
       </c>
       <c r="D52">
         <f t="shared" si="3"/>
-        <v>1.6357142845459127</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.61428571384694852</v>
+      </c>
+      <c r="F52">
+        <v>577</v>
+      </c>
+      <c r="G52">
+        <v>160</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="4"/>
+        <v>0.27729636048526862</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>150</v>
       </c>
       <c r="B53">
-        <v>153.49</v>
+        <v>150.86000000000001</v>
       </c>
       <c r="C53">
         <f t="shared" si="2"/>
-        <v>-3.4900000000000091</v>
+        <v>-0.86000000000001364</v>
       </c>
       <c r="D53">
         <f t="shared" si="3"/>
-        <v>2.3266666651155616</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.57333333295112021</v>
+      </c>
+      <c r="F53">
+        <v>609</v>
+      </c>
+      <c r="G53">
+        <v>170</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="4"/>
+        <v>0.27914614121510672</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>160</v>
       </c>
       <c r="B54">
-        <v>153.43</v>
+        <v>160</v>
       </c>
       <c r="C54">
         <f t="shared" si="2"/>
-        <v>6.5699999999999932</v>
+        <v>0</v>
       </c>
       <c r="D54">
         <f t="shared" si="3"/>
-        <v>-4.10624999743359</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>646</v>
+      </c>
+      <c r="G54">
+        <v>180</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="4"/>
+        <v>0.27863777089783281</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>170</v>
       </c>
       <c r="B55">
-        <v>172.74</v>
+        <v>171.14</v>
       </c>
       <c r="C55">
         <f t="shared" si="2"/>
-        <v>-2.7400000000000091</v>
+        <v>-1.1399999999999864</v>
       </c>
       <c r="D55">
         <f t="shared" si="3"/>
-        <v>1.6117647049342616</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.67058823489964603</v>
+      </c>
+      <c r="F55">
+        <v>682</v>
+      </c>
+      <c r="G55">
+        <v>190</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="4"/>
+        <v>0.27859237536656889</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>180</v>
       </c>
       <c r="B56">
-        <v>182.23</v>
+        <v>182.14</v>
       </c>
       <c r="C56">
         <f t="shared" si="2"/>
-        <v>-2.2299999999999898</v>
+        <v>-2.1399999999999864</v>
       </c>
       <c r="D56">
         <f t="shared" si="3"/>
-        <v>1.2388888882006117</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.1888888882283875</v>
+      </c>
+      <c r="F56">
+        <v>723</v>
+      </c>
+      <c r="G56">
+        <v>200</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="4"/>
+        <v>0.27662517289073307</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>190</v>
       </c>
       <c r="B57">
-        <v>195.39</v>
+        <v>192.86</v>
       </c>
       <c r="C57">
         <f t="shared" si="2"/>
-        <v>-5.3899999999999864</v>
+        <v>-2.8600000000000136</v>
       </c>
       <c r="D57">
         <f t="shared" si="3"/>
-        <v>2.836842103770076</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.5052631571025004</v>
+      </c>
+      <c r="F57">
+        <v>790</v>
+      </c>
+      <c r="G57">
+        <v>210</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="4"/>
+        <v>0.26582278481012656</v>
+      </c>
+      <c r="L57">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>200</v>
       </c>
       <c r="B58">
-        <v>206.42</v>
+        <v>201.86</v>
       </c>
       <c r="C58">
         <f t="shared" si="2"/>
-        <v>-6.4199999999999875</v>
+        <v>-1.8600000000000136</v>
       </c>
       <c r="D58">
         <f t="shared" si="3"/>
-        <v>3.2099999983949941</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.92999999953500678</v>
+      </c>
+      <c r="F58">
+        <v>825</v>
+      </c>
+      <c r="G58">
+        <v>220</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="4"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="L58">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>210</v>
       </c>
+      <c r="B59">
+        <v>211.14</v>
+      </c>
       <c r="C59">
         <f t="shared" si="2"/>
-        <v>210</v>
+        <v>-1.1399999999999864</v>
       </c>
       <c r="D59">
         <f t="shared" si="3"/>
-        <v>-99.999999952380961</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.54285714259863294</v>
+      </c>
+      <c r="L59">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>220</v>
       </c>
+      <c r="B60">
+        <v>221.14</v>
+      </c>
       <c r="C60">
         <f t="shared" si="2"/>
-        <v>220</v>
+        <v>-1.1399999999999864</v>
       </c>
       <c r="D60">
         <f t="shared" si="3"/>
-        <v>-99.999999954545459</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.51818181794627483</v>
+      </c>
+      <c r="L60">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>230</v>
       </c>
+      <c r="B61">
+        <v>230.86</v>
+      </c>
       <c r="C61">
         <f t="shared" si="2"/>
-        <v>230</v>
+        <v>-0.86000000000001364</v>
       </c>
       <c r="D61">
         <f t="shared" si="3"/>
-        <v>-99.999999956521748</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.37391304331569591</v>
+      </c>
+      <c r="L61">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>240</v>
       </c>
@@ -1388,8 +2761,11 @@
         <f t="shared" si="3"/>
         <v>-99.999999958333348</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="L62">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>250</v>
       </c>
@@ -1401,8 +2777,11 @@
         <f t="shared" si="3"/>
         <v>-99.999999960000011</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="L63">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>260</v>
       </c>
@@ -1414,8 +2793,11 @@
         <f t="shared" si="3"/>
         <v>-99.99999996153845</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="L64">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>270</v>
       </c>
@@ -1428,7 +2810,7 @@
         <v>-99.99999996296296</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>280</v>
       </c>
@@ -1441,7 +2823,7 @@
         <v>-99.999999964285706</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>290</v>
       </c>
@@ -1454,7 +2836,7 @@
         <v>-99.999999965517233</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>300</v>
       </c>
@@ -1467,7 +2849,950 @@
         <v>-99.999999966666664</v>
       </c>
     </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>11</v>
+      </c>
+      <c r="B69" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69">
+        <f>90-83.86</f>
+        <v>6.1400000000000006</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>2</v>
+      </c>
+      <c r="D70" t="s">
+        <v>3</v>
+      </c>
+      <c r="F70" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <f>A71-B71</f>
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <f>(B71-A71)/(A71 + 0.0000001)*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>5</v>
+      </c>
+      <c r="C72">
+        <f t="shared" ref="C72:C131" si="5">A72-B72</f>
+        <v>5</v>
+      </c>
+      <c r="D72">
+        <f t="shared" ref="D72:D131" si="6">(B72-A72)/(A72 + 0.0000001)*100</f>
+        <v>-99.999998000000033</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>10</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="6"/>
+        <v>-99.999999000000017</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>15</v>
+      </c>
+      <c r="B74">
+        <v>8.5</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="5"/>
+        <v>6.5</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="6"/>
+        <v>-43.333333044444451</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>20</v>
+      </c>
+      <c r="B75">
+        <v>13.95</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="5"/>
+        <v>6.0500000000000007</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="6"/>
+        <v>-30.249999848750004</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>25</v>
+      </c>
+      <c r="B76">
+        <v>19.41</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="5"/>
+        <v>5.59</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="6"/>
+        <v>-22.359999910559999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>30</v>
+      </c>
+      <c r="B77">
+        <v>26.25</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="5"/>
+        <v>3.75</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="6"/>
+        <v>-12.499999958333333</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>35</v>
+      </c>
+      <c r="B78">
+        <v>33.03</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="5"/>
+        <v>1.9699999999999989</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="6"/>
+        <v>-5.6285714124897925</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>40</v>
+      </c>
+      <c r="B79">
+        <v>39.03</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="5"/>
+        <v>0.96999999999999886</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="6"/>
+        <v>-2.4249999939374973</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>45</v>
+      </c>
+      <c r="B80">
+        <v>45.57</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="5"/>
+        <v>-0.57000000000000028</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="6"/>
+        <v>1.2666666638518524</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>50</v>
+      </c>
+      <c r="B81">
+        <v>51.54</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="5"/>
+        <v>-1.5399999999999991</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="6"/>
+        <v>3.0799999938399982</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>55</v>
+      </c>
+      <c r="B82">
+        <v>54.29</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="5"/>
+        <v>0.71000000000000085</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="6"/>
+        <v>-1.2909090885619849</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>60</v>
+      </c>
+      <c r="B83">
+        <v>59.47</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="5"/>
+        <v>0.53000000000000114</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="6"/>
+        <v>-0.88333333186111296</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>65</v>
+      </c>
+      <c r="B84">
+        <v>66.739999999999995</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="5"/>
+        <v>-1.7399999999999949</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="6"/>
+        <v>2.6769230728047257</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>70</v>
+      </c>
+      <c r="B85">
+        <v>70.62</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="5"/>
+        <v>-0.62000000000000455</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="6"/>
+        <v>0.88571428444898614</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>75</v>
+      </c>
+      <c r="B86">
+        <v>77.459999999999994</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="5"/>
+        <v>-2.4599999999999937</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="6"/>
+        <v>3.2799999956266581</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>80</v>
+      </c>
+      <c r="B87">
+        <v>81.819999999999993</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="5"/>
+        <v>-1.8199999999999932</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="6"/>
+        <v>2.2749999971562418</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>85</v>
+      </c>
+      <c r="B88">
+        <v>84.28</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="5"/>
+        <v>0.71999999999999886</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="6"/>
+        <v>-0.84705882253287068</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>90</v>
+      </c>
+      <c r="B89">
+        <v>90.55</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="5"/>
+        <v>-0.54999999999999716</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="6"/>
+        <v>0.61111111043209565</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>95</v>
+      </c>
+      <c r="B90">
+        <v>96.27</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="5"/>
+        <v>-1.269999999999996</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="6"/>
+        <v>1.3368421038559515</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>100</v>
+      </c>
+      <c r="B91">
+        <v>100.09</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="5"/>
+        <v>-9.0000000000003411E-2</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="6"/>
+        <v>8.9999999910003417E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>105</v>
+      </c>
+      <c r="B92">
+        <v>104.72</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="5"/>
+        <v>0.28000000000000114</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="6"/>
+        <v>-0.26666666641269948</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>110</v>
+      </c>
+      <c r="B93">
+        <v>110.17</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="5"/>
+        <v>-0.17000000000000171</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="6"/>
+        <v>0.15454545440496023</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>115</v>
+      </c>
+      <c r="B94">
+        <v>116.71</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="5"/>
+        <v>-1.7099999999999937</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="6"/>
+        <v>1.4869565204461195</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>120</v>
+      </c>
+      <c r="B95">
+        <v>120.8</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="5"/>
+        <v>-0.79999999999999716</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="6"/>
+        <v>0.66666666611110881</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>125</v>
+      </c>
+      <c r="B96">
+        <v>125.43</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="5"/>
+        <v>-0.43000000000000682</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="6"/>
+        <v>0.34399999972480544</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>130</v>
+      </c>
+      <c r="B97">
+        <v>129.79</v>
+      </c>
+      <c r="C97">
+        <f t="shared" si="5"/>
+        <v>0.21000000000000796</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="6"/>
+        <v>-0.16153846141420733</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>135</v>
+      </c>
+      <c r="B98">
+        <v>134.16</v>
+      </c>
+      <c r="C98">
+        <f t="shared" si="5"/>
+        <v>0.84000000000000341</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="6"/>
+        <v>-0.62222222176131947</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>140</v>
+      </c>
+      <c r="B99">
+        <v>139.88</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="5"/>
+        <v>0.12000000000000455</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="6"/>
+        <v>-8.5714285653064479E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>145</v>
+      </c>
+      <c r="B100">
+        <v>145.6</v>
+      </c>
+      <c r="C100">
+        <f t="shared" si="5"/>
+        <v>-0.59999999999999432</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="6"/>
+        <v>0.41379310316289736</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>150</v>
+      </c>
+      <c r="B101">
+        <v>151.05000000000001</v>
+      </c>
+      <c r="C101">
+        <f t="shared" si="5"/>
+        <v>-1.0500000000000114</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="6"/>
+        <v>0.69999999953334091</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>155</v>
+      </c>
+      <c r="B102">
+        <v>155.96</v>
+      </c>
+      <c r="C102">
+        <f t="shared" si="5"/>
+        <v>-0.96000000000000796</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="6"/>
+        <v>0.61935483831009874</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>160</v>
+      </c>
+      <c r="B103">
+        <v>160.05000000000001</v>
+      </c>
+      <c r="C103">
+        <f t="shared" si="5"/>
+        <v>-5.0000000000011369E-2</v>
+      </c>
+      <c r="D103">
+        <f t="shared" si="6"/>
+        <v>3.1249999980475857E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>165</v>
+      </c>
+      <c r="B104">
+        <v>165.23</v>
+      </c>
+      <c r="C104">
+        <f t="shared" si="5"/>
+        <v>-0.22999999999998977</v>
+      </c>
+      <c r="D104">
+        <f t="shared" si="6"/>
+        <v>0.13939393930945204</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>170</v>
+      </c>
+      <c r="B105">
+        <v>171.5</v>
+      </c>
+      <c r="C105">
+        <f t="shared" si="5"/>
+        <v>-1.5</v>
+      </c>
+      <c r="D105">
+        <f t="shared" si="6"/>
+        <v>0.88235294065743941</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>175</v>
+      </c>
+      <c r="B106">
+        <v>176.4</v>
+      </c>
+      <c r="C106">
+        <f t="shared" si="5"/>
+        <v>-1.4000000000000057</v>
+      </c>
+      <c r="D106">
+        <f t="shared" si="6"/>
+        <v>0.7999999995428605</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>180</v>
+      </c>
+      <c r="B107">
+        <v>181.13</v>
+      </c>
+      <c r="C107">
+        <f t="shared" si="5"/>
+        <v>-1.1299999999999955</v>
+      </c>
+      <c r="D107">
+        <f t="shared" si="6"/>
+        <v>0.62777777742900986</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>185</v>
+      </c>
+      <c r="B108">
+        <v>185.4</v>
+      </c>
+      <c r="C108">
+        <f t="shared" si="5"/>
+        <v>-0.40000000000000568</v>
+      </c>
+      <c r="D108">
+        <f t="shared" si="6"/>
+        <v>0.21621621609934563</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>190</v>
+      </c>
+      <c r="B109">
+        <v>191.39</v>
+      </c>
+      <c r="C109">
+        <f t="shared" si="5"/>
+        <v>-1.3899999999999864</v>
+      </c>
+      <c r="D109">
+        <f t="shared" si="6"/>
+        <v>0.73157894698337234</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>195</v>
+      </c>
+      <c r="B110">
+        <v>195.76</v>
+      </c>
+      <c r="C110">
+        <f t="shared" si="5"/>
+        <v>-0.75999999999999091</v>
+      </c>
+      <c r="D110">
+        <f t="shared" si="6"/>
+        <v>0.38974358954371657</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>200</v>
+      </c>
+      <c r="B111">
+        <v>201.48</v>
+      </c>
+      <c r="C111">
+        <f t="shared" si="5"/>
+        <v>-1.4799999999999898</v>
+      </c>
+      <c r="D111">
+        <f t="shared" si="6"/>
+        <v>0.73999999962999485</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>205</v>
+      </c>
+      <c r="B112">
+        <v>206.11</v>
+      </c>
+      <c r="C112">
+        <f t="shared" si="5"/>
+        <v>-1.1100000000000136</v>
+      </c>
+      <c r="D112">
+        <f t="shared" si="6"/>
+        <v>0.54146341437002454</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>210</v>
+      </c>
+      <c r="B113">
+        <v>211.84</v>
+      </c>
+      <c r="C113">
+        <f t="shared" si="5"/>
+        <v>-1.8400000000000034</v>
+      </c>
+      <c r="D113">
+        <f t="shared" si="6"/>
+        <v>0.87619047577324416</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>215</v>
+      </c>
+      <c r="C114">
+        <f t="shared" si="5"/>
+        <v>215</v>
+      </c>
+      <c r="D114">
+        <f t="shared" si="6"/>
+        <v>-99.99999995348837</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>220</v>
+      </c>
+      <c r="C115">
+        <f t="shared" si="5"/>
+        <v>220</v>
+      </c>
+      <c r="D115">
+        <f t="shared" si="6"/>
+        <v>-99.999999954545459</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>225</v>
+      </c>
+      <c r="C116">
+        <f t="shared" si="5"/>
+        <v>225</v>
+      </c>
+      <c r="D116">
+        <f t="shared" si="6"/>
+        <v>-99.999999955555566</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>230</v>
+      </c>
+      <c r="C117">
+        <f t="shared" si="5"/>
+        <v>230</v>
+      </c>
+      <c r="D117">
+        <f t="shared" si="6"/>
+        <v>-99.999999956521748</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>235</v>
+      </c>
+      <c r="C118">
+        <f t="shared" si="5"/>
+        <v>235</v>
+      </c>
+      <c r="D118">
+        <f t="shared" si="6"/>
+        <v>-99.999999957446803</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>240</v>
+      </c>
+      <c r="C119">
+        <f t="shared" si="5"/>
+        <v>240</v>
+      </c>
+      <c r="D119">
+        <f t="shared" si="6"/>
+        <v>-99.999999958333348</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>245</v>
+      </c>
+      <c r="C120">
+        <f t="shared" si="5"/>
+        <v>245</v>
+      </c>
+      <c r="D120">
+        <f t="shared" si="6"/>
+        <v>-99.999999959183668</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>250</v>
+      </c>
+      <c r="C121">
+        <f t="shared" si="5"/>
+        <v>250</v>
+      </c>
+      <c r="D121">
+        <f t="shared" si="6"/>
+        <v>-99.999999960000011</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>255</v>
+      </c>
+      <c r="C122">
+        <f t="shared" si="5"/>
+        <v>255</v>
+      </c>
+      <c r="D122">
+        <f t="shared" si="6"/>
+        <v>-99.999999960784308</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>260</v>
+      </c>
+      <c r="C123">
+        <f t="shared" si="5"/>
+        <v>260</v>
+      </c>
+      <c r="D123">
+        <f t="shared" si="6"/>
+        <v>-99.99999996153845</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>265</v>
+      </c>
+      <c r="C124">
+        <f t="shared" si="5"/>
+        <v>265</v>
+      </c>
+      <c r="D124">
+        <f t="shared" si="6"/>
+        <v>-99.999999962264141</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>270</v>
+      </c>
+      <c r="C125">
+        <f t="shared" si="5"/>
+        <v>270</v>
+      </c>
+      <c r="D125">
+        <f t="shared" si="6"/>
+        <v>-99.99999996296296</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>275</v>
+      </c>
+      <c r="C126">
+        <f t="shared" si="5"/>
+        <v>275</v>
+      </c>
+      <c r="D126">
+        <f t="shared" si="6"/>
+        <v>-99.999999963636355</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>280</v>
+      </c>
+      <c r="C127">
+        <f t="shared" si="5"/>
+        <v>280</v>
+      </c>
+      <c r="D127">
+        <f t="shared" si="6"/>
+        <v>-99.999999964285706</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>285</v>
+      </c>
+      <c r="C128">
+        <f t="shared" si="5"/>
+        <v>285</v>
+      </c>
+      <c r="D128">
+        <f t="shared" si="6"/>
+        <v>-99.999999964912263</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>290</v>
+      </c>
+      <c r="C129">
+        <f t="shared" si="5"/>
+        <v>290</v>
+      </c>
+      <c r="D129">
+        <f t="shared" si="6"/>
+        <v>-99.999999965517233</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>295</v>
+      </c>
+      <c r="C130">
+        <f t="shared" si="5"/>
+        <v>295</v>
+      </c>
+      <c r="D130">
+        <f t="shared" si="6"/>
+        <v>-99.999999966101683</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>300</v>
+      </c>
+      <c r="C131">
+        <f t="shared" si="5"/>
+        <v>300</v>
+      </c>
+      <c r="D131">
+        <f t="shared" si="6"/>
+        <v>-99.999999966666664</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/angle accuracy.xlsx
+++ b/angle accuracy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRISMO\Documents\School\Spring 2024\WEAR Labs\VARS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3340FDAA-59C9-477F-B656-B83C0F7AEB5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935980F0-30CF-4C50-83F4-B98DED5321CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="14736" xr2:uid="{ECC0ADA5-6B2C-461B-9377-B2C0E127B760}"/>
+    <workbookView xWindow="1236" yWindow="2076" windowWidth="11124" windowHeight="9936" xr2:uid="{ECC0ADA5-6B2C-461B-9377-B2C0E127B760}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>Real Angle</t>
   </si>
@@ -78,6 +78,15 @@
   </si>
   <si>
     <t xml:space="preserve">ELECTRIC  </t>
+  </si>
+  <si>
+    <t>90/310</t>
+  </si>
+  <si>
+    <t>110/390</t>
+  </si>
+  <si>
+    <t>100/350</t>
   </si>
 </sst>
 </file>
@@ -1522,8 +1531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCF6A247-4155-4934-9D32-BF76ECFE8E26}">
   <dimension ref="A1:O131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="94" workbookViewId="0">
-      <selection activeCell="H76" sqref="H76"/>
+    <sheetView tabSelected="1" topLeftCell="D32" zoomScale="94" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2896,11 +2905,11 @@
         <v>5</v>
       </c>
       <c r="C72">
-        <f t="shared" ref="C72:C131" si="5">A72-B72</f>
+        <f t="shared" ref="C72:C126" si="5">A72-B72</f>
         <v>5</v>
       </c>
       <c r="D72">
-        <f t="shared" ref="D72:D131" si="6">(B72-A72)/(A72 + 0.0000001)*100</f>
+        <f t="shared" ref="D72:D126" si="6">(B72-A72)/(A72 + 0.0000001)*100</f>
         <v>-99.999998000000033</v>
       </c>
     </row>
@@ -3029,7 +3038,7 @@
         <v>1.2666666638518524</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>50</v>
       </c>
@@ -3045,7 +3054,7 @@
         <v>3.0799999938399982</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>55</v>
       </c>
@@ -3061,7 +3070,7 @@
         <v>-1.2909090885619849</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>60</v>
       </c>
@@ -3077,7 +3086,7 @@
         <v>-0.88333333186111296</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>65</v>
       </c>
@@ -3093,7 +3102,7 @@
         <v>2.6769230728047257</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>70</v>
       </c>
@@ -3109,7 +3118,7 @@
         <v>0.88571428444898614</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>75</v>
       </c>
@@ -3125,7 +3134,7 @@
         <v>3.2799999956266581</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>80</v>
       </c>
@@ -3140,8 +3149,11 @@
         <f t="shared" si="6"/>
         <v>2.2749999971562418</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H87" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>85</v>
       </c>
@@ -3156,8 +3168,11 @@
         <f t="shared" si="6"/>
         <v>-0.84705882253287068</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H88" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>90</v>
       </c>
@@ -3172,8 +3187,11 @@
         <f t="shared" si="6"/>
         <v>0.61111111043209565</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H89" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>95</v>
       </c>
@@ -3189,7 +3207,7 @@
         <v>1.3368421038559515</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>100</v>
       </c>
@@ -3205,7 +3223,7 @@
         <v>8.9999999910003417E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>105</v>
       </c>
@@ -3221,7 +3239,7 @@
         <v>-0.26666666641269948</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>110</v>
       </c>
@@ -3237,7 +3255,7 @@
         <v>0.15454545440496023</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>115</v>
       </c>
@@ -3253,7 +3271,7 @@
         <v>1.4869565204461195</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>120</v>
       </c>
@@ -3269,7 +3287,7 @@
         <v>0.66666666611110881</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>125</v>
       </c>
@@ -3561,234 +3579,288 @@
       <c r="A114">
         <v>215</v>
       </c>
+      <c r="B114">
+        <v>216.87</v>
+      </c>
       <c r="C114">
         <f t="shared" si="5"/>
-        <v>215</v>
+        <v>-1.8700000000000045</v>
       </c>
       <c r="D114">
         <f t="shared" si="6"/>
-        <v>-99.99999995348837</v>
+        <v>0.86976744145592422</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>220</v>
       </c>
+      <c r="B115">
+        <v>221.5</v>
+      </c>
       <c r="C115">
         <f t="shared" si="5"/>
-        <v>220</v>
+        <v>-1.5</v>
       </c>
       <c r="D115">
         <f t="shared" si="6"/>
-        <v>-99.999999954545459</v>
+        <v>0.68181818150826445</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>225</v>
       </c>
+      <c r="B116">
+        <v>226.41</v>
+      </c>
       <c r="C116">
         <f t="shared" si="5"/>
-        <v>225</v>
+        <v>-1.4099999999999966</v>
       </c>
       <c r="D116">
         <f t="shared" si="6"/>
-        <v>-99.999999955555566</v>
+        <v>0.62666666638814672</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>230</v>
       </c>
+      <c r="B117">
+        <v>232.41</v>
+      </c>
       <c r="C117">
         <f t="shared" si="5"/>
-        <v>230</v>
+        <v>-2.4099999999999966</v>
       </c>
       <c r="D117">
         <f t="shared" si="6"/>
-        <v>-99.999999956521748</v>
+        <v>1.0478260865009437</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>235</v>
       </c>
+      <c r="B118">
+        <v>237.05</v>
+      </c>
       <c r="C118">
         <f t="shared" si="5"/>
-        <v>235</v>
+        <v>-2.0500000000000114</v>
       </c>
       <c r="D118">
         <f t="shared" si="6"/>
-        <v>-99.999999957446803</v>
+        <v>0.87234042516071109</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>240</v>
       </c>
+      <c r="B119">
+        <v>242.5</v>
+      </c>
       <c r="C119">
         <f t="shared" si="5"/>
-        <v>240</v>
+        <v>-2.5</v>
       </c>
       <c r="D119">
         <f t="shared" si="6"/>
-        <v>-99.999999958333348</v>
+        <v>1.041666666232639</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>245</v>
       </c>
+      <c r="B120">
+        <v>247.69</v>
+      </c>
       <c r="C120">
         <f t="shared" si="5"/>
-        <v>245</v>
+        <v>-2.6899999999999977</v>
       </c>
       <c r="D120">
         <f t="shared" si="6"/>
-        <v>-99.999999959183668</v>
+        <v>1.0979591832253217</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>250</v>
       </c>
+      <c r="B121">
+        <v>252.05</v>
+      </c>
       <c r="C121">
         <f t="shared" si="5"/>
-        <v>250</v>
+        <v>-2.0500000000000114</v>
       </c>
       <c r="D121">
         <f t="shared" si="6"/>
-        <v>-99.999999960000011</v>
+        <v>0.81999999967200465</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>255</v>
       </c>
+      <c r="B122">
+        <v>258.05</v>
+      </c>
       <c r="C122">
         <f t="shared" si="5"/>
-        <v>255</v>
+        <v>-3.0500000000000114</v>
       </c>
       <c r="D122">
         <f t="shared" si="6"/>
-        <v>-99.999999960784308</v>
+        <v>1.1960784309035031</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>260</v>
       </c>
+      <c r="B123">
+        <v>263.77999999999997</v>
+      </c>
       <c r="C123">
         <f t="shared" si="5"/>
-        <v>260</v>
+        <v>-3.7799999999999727</v>
       </c>
       <c r="D123">
         <f t="shared" si="6"/>
-        <v>-99.99999996153845</v>
+        <v>1.4538461532869715</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>265</v>
       </c>
+      <c r="B124">
+        <v>270.58999999999997</v>
+      </c>
       <c r="C124">
         <f t="shared" si="5"/>
-        <v>265</v>
+        <v>-5.589999999999975</v>
       </c>
       <c r="D124">
         <f t="shared" si="6"/>
-        <v>-99.999999962264141</v>
+        <v>2.1094339614681283</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>270</v>
       </c>
+      <c r="B125">
+        <v>275.23</v>
+      </c>
       <c r="C125">
         <f t="shared" si="5"/>
-        <v>270</v>
+        <v>-5.2300000000000182</v>
       </c>
       <c r="D125">
         <f t="shared" si="6"/>
-        <v>-99.99999996296296</v>
+        <v>1.9370370363196225</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>275</v>
       </c>
+      <c r="B126">
+        <v>281.5</v>
+      </c>
       <c r="C126">
         <f t="shared" si="5"/>
-        <v>275</v>
+        <v>-6.5</v>
       </c>
       <c r="D126">
         <f t="shared" si="6"/>
-        <v>-99.999999963636355</v>
+        <v>2.3636363627768593</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>280</v>
       </c>
+      <c r="B127">
+        <v>286.14</v>
+      </c>
       <c r="C127">
-        <f t="shared" si="5"/>
-        <v>280</v>
+        <f>A127-B127</f>
+        <v>-6.1399999999999864</v>
       </c>
       <c r="D127">
-        <f t="shared" si="6"/>
-        <v>-99.999999964285706</v>
+        <f>(B127-A127)/(A127 + 0.0000001)*100</f>
+        <v>2.1928571420739744</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>285</v>
       </c>
+      <c r="B128">
+        <v>286.14</v>
+      </c>
       <c r="C128">
-        <f t="shared" si="5"/>
-        <v>285</v>
+        <f>A128-B128</f>
+        <v>-1.1399999999999864</v>
       </c>
       <c r="D128">
-        <f t="shared" si="6"/>
-        <v>-99.999999964912263</v>
+        <f>(B128-A128)/(A128 + 0.0000001)*100</f>
+        <v>0.3999999998596443</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>290</v>
       </c>
+      <c r="B129">
+        <v>286.14</v>
+      </c>
       <c r="C129">
-        <f t="shared" si="5"/>
-        <v>290</v>
+        <f>A129-B129</f>
+        <v>3.8600000000000136</v>
       </c>
       <c r="D129">
-        <f t="shared" si="6"/>
-        <v>-99.999999965517233</v>
+        <f>(B129-A129)/(A129 + 0.0000001)*100</f>
+        <v>-1.3310344822996478</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>295</v>
       </c>
+      <c r="B130">
+        <v>286.14</v>
+      </c>
       <c r="C130">
-        <f t="shared" si="5"/>
-        <v>295</v>
+        <f>A130-B130</f>
+        <v>8.8600000000000136</v>
       </c>
       <c r="D130">
-        <f t="shared" si="6"/>
-        <v>-99.999999966101683</v>
+        <f>(B130-A130)/(A130 + 0.0000001)*100</f>
+        <v>-3.0033898294903807</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>300</v>
       </c>
+      <c r="B131">
+        <v>286.14</v>
+      </c>
       <c r="C131">
-        <f t="shared" si="5"/>
-        <v>300</v>
+        <f>A131-B131</f>
+        <v>13.860000000000014</v>
       </c>
       <c r="D131">
-        <f t="shared" si="6"/>
-        <v>-99.999999966666664</v>
+        <f>(B131-A131)/(A131 + 0.0000001)*100</f>
+        <v>-4.6199999984600035</v>
       </c>
     </row>
   </sheetData>
